--- a/Public/doc/项目问题跟踪表_张洁.xlsx
+++ b/Public/doc/项目问题跟踪表_张洁.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -121,6 +121,59 @@
   <si>
     <t>在组长的检查下完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数据时没有获取到表单数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用create()方法时表单数据与数据库不统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长帮助下完成修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出EXCEL时无法加载控制器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类文件名称与控制器名称不统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据报错认真检查完成修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件查询结果翻页功能还是可以翻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>翻页函数是跳转到加载页面而不是查询后的列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
@@ -774,7 +827,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1820,17 +1873,39 @@
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
+      <c r="C5" s="8">
+        <v>42863</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="8">
+        <v>42863</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1838,17 +1913,39 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="C6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1856,17 +1953,37 @@
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
+      <c r="C7" s="8">
+        <v>42863</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
